--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H2">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I2">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J2">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N2">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P2">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q2">
-        <v>0.1506681875804976</v>
+        <v>0.2355137117263333</v>
       </c>
       <c r="R2">
-        <v>0.1506681875804976</v>
+        <v>2.119623405537</v>
       </c>
       <c r="S2">
-        <v>0.0004492666785463649</v>
+        <v>0.0006033750218705806</v>
       </c>
       <c r="T2">
-        <v>0.0004492666785463649</v>
+        <v>0.0006033750218705806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H3">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I3">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J3">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N3">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P3">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q3">
-        <v>0.7850055503201386</v>
+        <v>1.142417695933556</v>
       </c>
       <c r="R3">
-        <v>0.7850055503201386</v>
+        <v>10.281759263402</v>
       </c>
       <c r="S3">
-        <v>0.002340751832860305</v>
+        <v>0.002926820256946315</v>
       </c>
       <c r="T3">
-        <v>0.002340751832860305</v>
+        <v>0.002926820256946316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H4">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I4">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J4">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N4">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P4">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q4">
-        <v>0.1976783325464763</v>
+        <v>0.3062192155183334</v>
       </c>
       <c r="R4">
-        <v>0.1976783325464763</v>
+        <v>2.755972939665</v>
       </c>
       <c r="S4">
-        <v>0.0005894428632208139</v>
+        <v>0.0007845191878902708</v>
       </c>
       <c r="T4">
-        <v>0.0005894428632208139</v>
+        <v>0.0007845191878902708</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H5">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I5">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J5">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N5">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P5">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q5">
-        <v>0.1472484635674162</v>
+        <v>0.2885796237756667</v>
       </c>
       <c r="R5">
-        <v>0.1472484635674162</v>
+        <v>2.597216613981</v>
       </c>
       <c r="S5">
-        <v>0.00043906964841297</v>
+        <v>0.0007393273857845529</v>
       </c>
       <c r="T5">
-        <v>0.00043906964841297</v>
+        <v>0.0007393273857845529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H6">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I6">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J6">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N6">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P6">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q6">
-        <v>1.536920049785688</v>
+        <v>2.498571419191222</v>
       </c>
       <c r="R6">
-        <v>1.536920049785688</v>
+        <v>22.487142772721</v>
       </c>
       <c r="S6">
-        <v>0.004582831830970443</v>
+        <v>0.006401222135429263</v>
       </c>
       <c r="T6">
-        <v>0.004582831830970443</v>
+        <v>0.006401222135429263</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H7">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J7">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N7">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P7">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q7">
-        <v>17.54826926936056</v>
+        <v>19.97350646412367</v>
       </c>
       <c r="R7">
-        <v>17.54826926936056</v>
+        <v>179.761558177113</v>
       </c>
       <c r="S7">
-        <v>0.05232592742692117</v>
+        <v>0.05117118154728351</v>
       </c>
       <c r="T7">
-        <v>0.05232592742692117</v>
+        <v>0.05117118154728351</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H8">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J8">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N8">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P8">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q8">
-        <v>91.42931229328366</v>
+        <v>96.88644906149977</v>
       </c>
       <c r="R8">
-        <v>91.42931229328366</v>
+        <v>871.978041553498</v>
       </c>
       <c r="S8">
-        <v>0.2726265186792408</v>
+        <v>0.2482185130238805</v>
       </c>
       <c r="T8">
-        <v>0.2726265186792408</v>
+        <v>0.2482185130238805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H9">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I9">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J9">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N9">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P9">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q9">
-        <v>23.02352383704375</v>
+        <v>25.96991672273166</v>
       </c>
       <c r="R9">
-        <v>23.02352383704375</v>
+        <v>233.7292505045849</v>
       </c>
       <c r="S9">
-        <v>0.06865219691565858</v>
+        <v>0.06653370182014468</v>
       </c>
       <c r="T9">
-        <v>0.06865219691565858</v>
+        <v>0.06653370182014468</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H10">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I10">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J10">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N10">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P10">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q10">
-        <v>17.14997525141208</v>
+        <v>24.47393376227433</v>
       </c>
       <c r="R10">
-        <v>17.14997525141208</v>
+        <v>220.265403860469</v>
       </c>
       <c r="S10">
-        <v>0.05113828301835618</v>
+        <v>0.06270106403074573</v>
       </c>
       <c r="T10">
-        <v>0.05113828301835618</v>
+        <v>0.06270106403074573</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H11">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I11">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J11">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.7163399383818</v>
+        <v>25.53984366666667</v>
       </c>
       <c r="N11">
-        <v>22.7163399383818</v>
+        <v>76.61953099999999</v>
       </c>
       <c r="O11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="P11">
-        <v>0.5454867157395246</v>
+        <v>0.5588017999566871</v>
       </c>
       <c r="Q11">
-        <v>179.0045218716715</v>
+        <v>211.8994772171921</v>
       </c>
       <c r="R11">
-        <v>179.0045218716715</v>
+        <v>1907.095294954729</v>
       </c>
       <c r="S11">
-        <v>0.5337607644818818</v>
+        <v>0.5428764667802232</v>
       </c>
       <c r="T11">
-        <v>0.5337607644818818</v>
+        <v>0.5428764667802232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H12">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I12">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J12">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.22694067102301</v>
+        <v>2.407369</v>
       </c>
       <c r="N12">
-        <v>2.22694067102301</v>
+        <v>7.222107</v>
       </c>
       <c r="O12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="P12">
-        <v>0.05347545229901366</v>
+        <v>0.05267229306167105</v>
       </c>
       <c r="Q12">
-        <v>0.2348418832248187</v>
+        <v>0.006797607599666667</v>
       </c>
       <c r="R12">
-        <v>0.2348418832248187</v>
+        <v>0.061178468397</v>
       </c>
       <c r="S12">
-        <v>0.0007002581935461226</v>
+        <v>1.741515007365026E-05</v>
       </c>
       <c r="T12">
-        <v>0.0007002581935461226</v>
+        <v>1.741515007365026E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H13">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I13">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J13">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6027199574079</v>
+        <v>11.67754066666667</v>
       </c>
       <c r="N13">
-        <v>11.6027199574079</v>
+        <v>35.032622</v>
       </c>
       <c r="O13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="P13">
-        <v>0.2786157286067946</v>
+        <v>0.2555000268900398</v>
       </c>
       <c r="Q13">
-        <v>1.223564076395507</v>
+        <v>0.03297348232911111</v>
       </c>
       <c r="R13">
-        <v>1.223564076395507</v>
+        <v>0.296761340962</v>
       </c>
       <c r="S13">
-        <v>0.003648458094693466</v>
+        <v>8.447650659336141E-05</v>
       </c>
       <c r="T13">
-        <v>0.003648458094693466</v>
+        <v>8.447650659336143E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H14">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I14">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J14">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.92177085021723</v>
+        <v>3.130105</v>
       </c>
       <c r="N14">
-        <v>2.92177085021723</v>
+        <v>9.390314999999999</v>
       </c>
       <c r="O14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="P14">
-        <v>0.07016038629249395</v>
+        <v>0.06848547433891598</v>
       </c>
       <c r="Q14">
-        <v>0.3081151544559062</v>
+        <v>0.008838373151666665</v>
       </c>
       <c r="R14">
-        <v>0.3081151544559062</v>
+        <v>0.07954535836499999</v>
       </c>
       <c r="S14">
-        <v>0.0009187465136145498</v>
+        <v>2.264349516890972E-05</v>
       </c>
       <c r="T14">
-        <v>0.0009187465136145498</v>
+        <v>2.264349516890972E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H15">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I15">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J15">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.17639567801089</v>
+        <v>2.949797</v>
       </c>
       <c r="N15">
-        <v>2.17639567801089</v>
+        <v>8.849391000000001</v>
       </c>
       <c r="O15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="P15">
-        <v>0.05226171706217327</v>
+        <v>0.06454040575268606</v>
       </c>
       <c r="Q15">
-        <v>0.2295116642831984</v>
+        <v>0.008329243462333333</v>
       </c>
       <c r="R15">
-        <v>0.2295116642831984</v>
+        <v>0.074963191161</v>
       </c>
       <c r="S15">
-        <v>0.0006843643954041142</v>
+        <v>2.133912891700579E-05</v>
       </c>
       <c r="T15">
-        <v>0.0006843643954041142</v>
+        <v>2.133912891700579E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.002823666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.008470999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0003306320849418846</v>
+      </c>
+      <c r="J16">
+        <v>0.0003306320849418846</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>25.53984366666667</v>
+      </c>
+      <c r="N16">
+        <v>76.61953099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="P16">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="Q16">
+        <v>0.07211600523344444</v>
+      </c>
+      <c r="R16">
+        <v>0.6490440471009999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001847578041889574</v>
+      </c>
+      <c r="T16">
+        <v>0.0001847578041889574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.142734</v>
+      </c>
+      <c r="H17">
+        <v>0.428202</v>
+      </c>
+      <c r="I17">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J17">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.407369</v>
+      </c>
+      <c r="N17">
+        <v>7.222107</v>
+      </c>
+      <c r="O17">
+        <v>0.05267229306167105</v>
+      </c>
+      <c r="P17">
+        <v>0.05267229306167105</v>
+      </c>
+      <c r="Q17">
+        <v>0.343613406846</v>
+      </c>
+      <c r="R17">
+        <v>3.092520661614</v>
+      </c>
+      <c r="S17">
+        <v>0.0008803213424432992</v>
+      </c>
+      <c r="T17">
+        <v>0.0008803213424432992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.142734</v>
+      </c>
+      <c r="H18">
+        <v>0.428202</v>
+      </c>
+      <c r="I18">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J18">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.67754066666667</v>
+      </c>
+      <c r="N18">
+        <v>35.032622</v>
+      </c>
+      <c r="O18">
+        <v>0.2555000268900398</v>
+      </c>
+      <c r="P18">
+        <v>0.2555000268900398</v>
+      </c>
+      <c r="Q18">
+        <v>1.666782089516</v>
+      </c>
+      <c r="R18">
+        <v>15.001038805644</v>
+      </c>
+      <c r="S18">
+        <v>0.00427021710261959</v>
+      </c>
+      <c r="T18">
+        <v>0.004270217102619591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.142734</v>
+      </c>
+      <c r="H19">
+        <v>0.428202</v>
+      </c>
+      <c r="I19">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J19">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3.130105</v>
+      </c>
+      <c r="N19">
+        <v>9.390314999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.06848547433891598</v>
+      </c>
+      <c r="P19">
+        <v>0.06848547433891598</v>
+      </c>
+      <c r="Q19">
+        <v>0.44677240707</v>
+      </c>
+      <c r="R19">
+        <v>4.020951663629999</v>
+      </c>
+      <c r="S19">
+        <v>0.001144609835712133</v>
+      </c>
+      <c r="T19">
+        <v>0.001144609835712133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.105454934781418</v>
-      </c>
-      <c r="H16">
-        <v>0.105454934781418</v>
-      </c>
-      <c r="I16">
-        <v>0.01309494662393045</v>
-      </c>
-      <c r="J16">
-        <v>0.01309494662393045</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>22.7163399383818</v>
-      </c>
-      <c r="N16">
-        <v>22.7163399383818</v>
-      </c>
-      <c r="O16">
-        <v>0.5454867157395246</v>
-      </c>
-      <c r="P16">
-        <v>0.5454867157395246</v>
-      </c>
-      <c r="Q16">
-        <v>2.395550146674574</v>
-      </c>
-      <c r="R16">
-        <v>2.395550146674574</v>
-      </c>
-      <c r="S16">
-        <v>0.007143119426672196</v>
-      </c>
-      <c r="T16">
-        <v>0.007143119426672196</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.142734</v>
+      </c>
+      <c r="H20">
+        <v>0.428202</v>
+      </c>
+      <c r="I20">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J20">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>2.949797</v>
+      </c>
+      <c r="N20">
+        <v>8.849391000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.06454040575268606</v>
+      </c>
+      <c r="P20">
+        <v>0.06454040575268606</v>
+      </c>
+      <c r="Q20">
+        <v>0.421036324998</v>
+      </c>
+      <c r="R20">
+        <v>3.789326924982</v>
+      </c>
+      <c r="S20">
+        <v>0.001078675207238781</v>
+      </c>
+      <c r="T20">
+        <v>0.001078675207238781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.142734</v>
+      </c>
+      <c r="H21">
+        <v>0.428202</v>
+      </c>
+      <c r="I21">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J21">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>25.53984366666667</v>
+      </c>
+      <c r="N21">
+        <v>76.61953099999999</v>
+      </c>
+      <c r="O21">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="P21">
+        <v>0.5588017999566871</v>
+      </c>
+      <c r="Q21">
+        <v>3.645404045918</v>
+      </c>
+      <c r="R21">
+        <v>32.80863641326199</v>
+      </c>
+      <c r="S21">
+        <v>0.009339353236845699</v>
+      </c>
+      <c r="T21">
+        <v>0.009339353236845699</v>
       </c>
     </row>
   </sheetData>
